--- a/test_resource/golden_similarity_recommendation_0.xlsx
+++ b/test_resource/golden_similarity_recommendation_0.xlsx
@@ -41,7 +41,9 @@
     <t>.cpp_BrowserProcessHandler</t>
   </si>
   <si>
-    <t xml:space="preserve">BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) {                    assertequal = app_handler}_x000D_
+    <t xml:space="preserve">BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) _x000D_
+{                    assertequal = app_handler_x000D_
+}_x000D_
 </t>
   </si>
 </sst>

--- a/test_resource/golden_similarity_recommendation_0.xlsx
+++ b/test_resource/golden_similarity_recommendation_0.xlsx
@@ -42,7 +42,8 @@
   </si>
   <si>
     <t xml:space="preserve">BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) _x000D_
-{                    assertequal = app_handler_x000D_
+{_x000D_
+                    assertequal = app_handler_x000D_
 }_x000D_
 </t>
   </si>
